--- a/biology/Zoologie/Adelpha_iphicleola/Adelpha_iphicleola.xlsx
+++ b/biology/Zoologie/Adelpha_iphicleola/Adelpha_iphicleola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adelpha iphicleola  est une espèce de papillons de la famille des Nymphalidae, sous famille des Limenitidinae et du genre des Adelpha.
 </t>
@@ -511,52 +523,52 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adelpha iphicleola a été décrit par Henry Walter Bates en 1864 sous le nom initial d' Heterochroa iphicleola[1].
-Sous-espèces
-Adelpha iphicleola iphicleola; présent au Mexique,  à Panama et au Guatemala.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelpha iphicleola a été décrit par Henry Walter Bates en 1864 sous le nom initial d' Heterochroa iphicleola.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Adelpha_iphicleola</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adelpha_iphicleola</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Adelpha iphicleola iphicleola; présent au Mexique,  à Panama et au Guatemala.
 Adelpha iphicleola gortyna Fruhstorfer, 1915; présent au Venezuela et en Colombie
 Adelpha iphicleola iphimedia Fruhstorfer, 1915; présent à Cuba.
 Adelpha iphicleola leucates Fruhstorfer, 1915; au Venezuela, à Trinité-et-Tobago, au Paraguay et au Brésil.
-Adelpha iphicleola thessalita Willmott &amp; Hall, 1999;  en Équateur et au Pérou[1].
-Noms vernaculaires
-Adelpha iphicleola se nomme Iphicleola Sister en anglais[2].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Adelpha_iphicleola</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Adelpha_iphicleola</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adelpha iphicleola est un papillon d'une envergure d'environ 45 mm à  53 mm au dessus marron orné d'une plage jaune proche de l'apex aux ailes antérieures, d'une petite tache jaune à l'angle anal des ailes postérieures, et d'une large bande blanche entre elles[2],[3].
-Le revers est rayé de bandes cuivrées et blanc rosé avec des veines soulignées de cuivré et la même bande blanche que sur le dessus.
-Chenille
-La chenille est cuivrée annelée de vert et développe de très grandes épines[2].
-</t>
+Adelpha iphicleola thessalita Willmott &amp; Hall, 1999;  en Équateur et au Pérou.</t>
         </is>
       </c>
     </row>
@@ -581,10 +593,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelpha iphicleola se nomme Iphicleola Sister en anglais.
+</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -607,15 +630,150 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelpha iphicleola est un papillon d'une envergure d'environ 45 mm à  53 mm au dessus marron orné d'une plage jaune proche de l'apex aux ailes antérieures, d'une petite tache jaune à l'angle anal des ailes postérieures, et d'une large bande blanche entre elles,.
+Le revers est rayé de bandes cuivrées et blanc rosé avec des veines soulignées de cuivré et la même bande blanche que sur le dessus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Adelpha_iphicleola</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adelpha_iphicleola</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille est cuivrée annelée de vert et développe de très grandes épines.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Adelpha_iphicleola</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adelpha_iphicleola</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Adelpha_iphicleola</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adelpha_iphicleola</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adelpha iphicleola est présent  au Mexique, à Panama, au Guatemala, au Costa Rica, au Venezuela, à Trinité-et-Tobago, à Cuba, en Colombie, en Équateur, en Bolivie, au Paraguay, au Brésil et au Pérou[1]. Sa présence en Guyana et en Guyane demande à être confirmée.
-Biotope
-Protection
-Pas de statut de protection particulier.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelpha iphicleola est présent  au Mexique, à Panama, au Guatemala, au Costa Rica, au Venezuela, à Trinité-et-Tobago, à Cuba, en Colombie, en Équateur, en Bolivie, au Paraguay, au Brésil et au Pérou. Sa présence en Guyana et en Guyane demande à être confirmée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Adelpha_iphicleola</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adelpha_iphicleola</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
